--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS122_InqListPeserta.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS122_InqListPeserta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CA209-53BF-408D-860B-F9B185ED7052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79B4CF8-B61C-4632-9615-32817420A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +636,10 @@
         <v>19</v>
       </c>
       <c r="O2" s="9">
-        <v>44803</v>
+        <v>44774</v>
       </c>
       <c r="P2" s="9">
-        <v>44803</v>
+        <v>44798</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>18</v>
